--- a/time_series_analysis/week3/kangwon_rain.xlsx
+++ b/time_series_analysis/week3/kangwon_rain.xlsx
@@ -15,15 +15,12 @@
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
     <sheet name="메타정보" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="56">
-  <si>
-    <t>시점</t>
-  </si>
   <si>
     <t>월별</t>
   </si>
@@ -189,6 +186,10 @@
   <si>
     <t>자료 :「기상관측통계」기상청 국가기후데이터센터</t>
   </si>
+  <si>
+    <t>연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -296,16 +297,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -594,74 +595,74 @@
   <dimension ref="A1:U373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B371" sqref="B371"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -669,10 +670,11 @@
         <v>1993</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <f>SUM(D2:U2)</f>
+        <v>939.3</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -734,10 +736,11 @@
         <v>1993</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4">
-        <v>49.1</v>
+        <f t="shared" ref="C3:C66" si="0">SUM(D3:U3)</f>
+        <v>1171.8000000000002</v>
       </c>
       <c r="D3" s="4">
         <v>49.1</v>
@@ -799,10 +802,11 @@
         <v>1993</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
-        <v>39.799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>720.30000000000018</v>
       </c>
       <c r="D4" s="4">
         <v>22.5</v>
@@ -864,10 +868,11 @@
         <v>1993</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>76.900000000000006</v>
+        <f t="shared" si="0"/>
+        <v>1403</v>
       </c>
       <c r="D5" s="4">
         <v>83.5</v>
@@ -929,10 +934,11 @@
         <v>1993</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>134.4</v>
+        <f t="shared" si="0"/>
+        <v>2395.4000000000005</v>
       </c>
       <c r="D6" s="4">
         <v>184.9</v>
@@ -994,10 +1000,11 @@
         <v>1993</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
-        <v>174.9</v>
+        <f t="shared" si="0"/>
+        <v>3165.0000000000005</v>
       </c>
       <c r="D7" s="4">
         <v>170.7</v>
@@ -1059,10 +1066,11 @@
         <v>1993</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
-        <v>324.3</v>
+        <f t="shared" si="0"/>
+        <v>5799.5000000000009</v>
       </c>
       <c r="D8" s="4">
         <v>318.39999999999998</v>
@@ -1124,10 +1132,11 @@
         <v>1993</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
-        <v>322.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5815.0999999999995</v>
       </c>
       <c r="D9" s="4">
         <v>199.9</v>
@@ -1189,10 +1198,11 @@
         <v>1993</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
-        <v>65.5</v>
+        <f t="shared" si="0"/>
+        <v>1159.5000000000002</v>
       </c>
       <c r="D10" s="4">
         <v>45.7</v>
@@ -1254,10 +1264,11 @@
         <v>1993</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
-        <v>25.7</v>
+        <f t="shared" si="0"/>
+        <v>453.59999999999997</v>
       </c>
       <c r="D11" s="4">
         <v>13.8</v>
@@ -1319,10 +1330,11 @@
         <v>1993</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4">
-        <v>73.900000000000006</v>
+        <f t="shared" si="0"/>
+        <v>1363.8</v>
       </c>
       <c r="D12" s="4">
         <v>49.5</v>
@@ -1384,10 +1396,11 @@
         <v>1993</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4">
-        <v>16.7</v>
+        <f t="shared" si="0"/>
+        <v>309.2</v>
       </c>
       <c r="D13" s="4">
         <v>13</v>
@@ -1417,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="4">
         <v>33.5</v>
@@ -1449,10 +1462,11 @@
         <v>1994</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
-        <v>32.4</v>
+        <f t="shared" si="0"/>
+        <v>582.9</v>
       </c>
       <c r="D14" s="4">
         <v>10.199999999999999</v>
@@ -1514,10 +1528,11 @@
         <v>1994</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>305.89999999999998</v>
       </c>
       <c r="D15" s="4">
         <v>4.5999999999999996</v>
@@ -1579,10 +1594,11 @@
         <v>1994</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
-        <v>18.899999999999999</v>
+        <f t="shared" si="0"/>
+        <v>340.6</v>
       </c>
       <c r="D16" s="4">
         <v>21.7</v>
@@ -1644,10 +1660,11 @@
         <v>1994</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>25.6</v>
+        <f t="shared" si="0"/>
+        <v>460.6</v>
       </c>
       <c r="D17" s="4">
         <v>35</v>
@@ -1709,10 +1726,11 @@
         <v>1994</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
-        <v>97.4</v>
+        <f t="shared" si="0"/>
+        <v>1753.2</v>
       </c>
       <c r="D18" s="4">
         <v>130.6</v>
@@ -1774,10 +1792,11 @@
         <v>1994</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
-        <v>116.5</v>
+        <f t="shared" si="0"/>
+        <v>2097.5</v>
       </c>
       <c r="D19" s="4">
         <v>99.9</v>
@@ -1839,10 +1858,11 @@
         <v>1994</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
-        <v>124.5</v>
+        <f t="shared" si="0"/>
+        <v>2240.8000000000002</v>
       </c>
       <c r="D20" s="4">
         <v>128.5</v>
@@ -1904,10 +1924,11 @@
         <v>1994</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
-        <v>248.3</v>
+        <f t="shared" si="0"/>
+        <v>4468.7</v>
       </c>
       <c r="D21" s="4">
         <v>248.5</v>
@@ -1969,10 +1990,11 @@
         <v>1994</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
-        <v>54.4</v>
+        <f t="shared" si="0"/>
+        <v>978.9</v>
       </c>
       <c r="D22" s="4">
         <v>59.9</v>
@@ -2034,10 +2056,11 @@
         <v>1994</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4">
-        <v>217.7</v>
+        <f t="shared" si="0"/>
+        <v>3918.1</v>
       </c>
       <c r="D23" s="4">
         <v>137.30000000000001</v>
@@ -2099,10 +2122,11 @@
         <v>1994</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4">
-        <v>63.4</v>
+        <f t="shared" si="0"/>
+        <v>1141.5</v>
       </c>
       <c r="D24" s="4">
         <v>45.5</v>
@@ -2164,10 +2188,11 @@
         <v>1994</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4">
-        <v>13.2</v>
+        <f t="shared" si="0"/>
+        <v>238.00000000000003</v>
       </c>
       <c r="D25" s="4">
         <v>9.1999999999999993</v>
@@ -2229,10 +2254,11 @@
         <v>1995</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4">
-        <v>11.4</v>
+        <f t="shared" si="0"/>
+        <v>204.5</v>
       </c>
       <c r="D26" s="4">
         <v>8.4</v>
@@ -2294,10 +2320,11 @@
         <v>1995</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
-        <v>20.9</v>
+        <f t="shared" si="0"/>
+        <v>375.7</v>
       </c>
       <c r="D27" s="4">
         <v>7.6</v>
@@ -2359,10 +2386,11 @@
         <v>1995</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4">
-        <v>72.099999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1298.6000000000001</v>
       </c>
       <c r="D28" s="4">
         <v>53.5</v>
@@ -2424,10 +2452,11 @@
         <v>1995</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
-        <v>44.9</v>
+        <f t="shared" si="0"/>
+        <v>804.9</v>
       </c>
       <c r="D29" s="4">
         <v>43</v>
@@ -2489,10 +2518,11 @@
         <v>1995</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
-        <v>36.1</v>
+        <f t="shared" si="0"/>
+        <v>650.00000000000011</v>
       </c>
       <c r="D30" s="4">
         <v>45.9</v>
@@ -2554,10 +2584,11 @@
         <v>1995</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
-        <v>69.400000000000006</v>
+        <f t="shared" si="0"/>
+        <v>1249.2</v>
       </c>
       <c r="D31" s="4">
         <v>54.2</v>
@@ -2619,10 +2650,11 @@
         <v>1995</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4">
-        <v>264.39999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4758.2000000000007</v>
       </c>
       <c r="D32" s="4">
         <v>453.9</v>
@@ -2684,10 +2716,11 @@
         <v>1995</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4">
-        <v>586.1</v>
+        <f t="shared" si="0"/>
+        <v>10549.800000000001</v>
       </c>
       <c r="D33" s="4">
         <v>774.7</v>
@@ -2749,10 +2782,11 @@
         <v>1995</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4">
-        <v>79.400000000000006</v>
+        <f t="shared" si="0"/>
+        <v>1429.1</v>
       </c>
       <c r="D34" s="4">
         <v>74.2</v>
@@ -2814,10 +2848,11 @@
         <v>1995</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>359.79999999999995</v>
       </c>
       <c r="D35" s="4">
         <v>25.8</v>
@@ -2879,10 +2914,11 @@
         <v>1995</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4">
-        <v>29.4</v>
+        <f t="shared" si="0"/>
+        <v>529.79999999999995</v>
       </c>
       <c r="D36" s="4">
         <v>47.7</v>
@@ -2944,10 +2980,11 @@
         <v>1995</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4">
-        <v>4.7</v>
+        <f t="shared" si="0"/>
+        <v>85.1</v>
       </c>
       <c r="D37" s="4">
         <v>4.5</v>
@@ -3009,10 +3046,11 @@
         <v>1996</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="4">
-        <v>24.9</v>
+        <f t="shared" si="0"/>
+        <v>448.29999999999995</v>
       </c>
       <c r="D38" s="4">
         <v>17.5</v>
@@ -3074,10 +3112,11 @@
         <v>1996</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="4">
-        <v>40.200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>723.2</v>
       </c>
       <c r="D39" s="4">
         <v>5.3</v>
@@ -3139,10 +3178,11 @@
         <v>1996</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4">
-        <v>80.599999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1450.1999999999998</v>
       </c>
       <c r="D40" s="4">
         <v>70.400000000000006</v>
@@ -3204,10 +3244,11 @@
         <v>1996</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="4">
-        <v>55.4</v>
+        <f t="shared" si="0"/>
+        <v>997.8</v>
       </c>
       <c r="D41" s="4">
         <v>54.2</v>
@@ -3269,10 +3310,11 @@
         <v>1996</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="4">
-        <v>27.2</v>
+        <f t="shared" si="0"/>
+        <v>488.7</v>
       </c>
       <c r="D42" s="4">
         <v>23.3</v>
@@ -3334,10 +3376,11 @@
         <v>1996</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="4">
-        <v>241.3</v>
+        <f t="shared" si="0"/>
+        <v>4343.6000000000004</v>
       </c>
       <c r="D43" s="4">
         <v>236.1</v>
@@ -3399,10 +3442,11 @@
         <v>1996</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="4">
-        <v>332.7</v>
+        <f t="shared" si="0"/>
+        <v>5988.5999999999995</v>
       </c>
       <c r="D44" s="4">
         <v>545.70000000000005</v>
@@ -3464,10 +3508,11 @@
         <v>1996</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4">
-        <v>157.19999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2828.8</v>
       </c>
       <c r="D45" s="4">
         <v>74.3</v>
@@ -3529,10 +3574,11 @@
         <v>1996</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4">
-        <v>29.1</v>
+        <f t="shared" si="0"/>
+        <v>523.40000000000009</v>
       </c>
       <c r="D46" s="4">
         <v>35.700000000000003</v>
@@ -3594,10 +3640,11 @@
         <v>1996</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4">
-        <v>70.599999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1271.1000000000001</v>
       </c>
       <c r="D47" s="4">
         <v>64.8</v>
@@ -3659,10 +3706,11 @@
         <v>1996</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4">
-        <v>55.6</v>
+        <f t="shared" si="0"/>
+        <v>999.9</v>
       </c>
       <c r="D48" s="4">
         <v>45</v>
@@ -3724,10 +3772,11 @@
         <v>1996</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="4">
-        <v>17.8</v>
+        <f t="shared" si="0"/>
+        <v>321.10000000000002</v>
       </c>
       <c r="D49" s="4">
         <v>13.4</v>
@@ -3789,10 +3838,11 @@
         <v>1997</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="4">
-        <v>32.299999999999997</v>
+        <f t="shared" si="0"/>
+        <v>580.6</v>
       </c>
       <c r="D50" s="4">
         <v>18.5</v>
@@ -3854,10 +3904,11 @@
         <v>1997</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="4">
-        <v>34.5</v>
+        <f t="shared" si="0"/>
+        <v>620.4</v>
       </c>
       <c r="D51" s="4">
         <v>31.7</v>
@@ -3919,10 +3970,11 @@
         <v>1997</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="4">
-        <v>31.9</v>
+        <f t="shared" si="0"/>
+        <v>574.79999999999995</v>
       </c>
       <c r="D52" s="4">
         <v>16.3</v>
@@ -3984,10 +4036,11 @@
         <v>1997</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="4">
-        <v>47.1</v>
+        <f t="shared" si="0"/>
+        <v>847.39999999999986</v>
       </c>
       <c r="D53" s="4">
         <v>32.299999999999997</v>
@@ -4049,10 +4102,11 @@
         <v>1997</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4">
-        <v>265.2</v>
+        <f t="shared" si="0"/>
+        <v>4773.9000000000005</v>
       </c>
       <c r="D54" s="4">
         <v>281.89999999999998</v>
@@ -4114,10 +4168,11 @@
         <v>1997</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="4">
-        <v>132.1</v>
+        <f t="shared" si="0"/>
+        <v>2378.5</v>
       </c>
       <c r="D55" s="4">
         <v>110.7</v>
@@ -4179,10 +4234,11 @@
         <v>1997</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="4">
-        <v>225.2</v>
+        <f t="shared" si="0"/>
+        <v>4053.7000000000003</v>
       </c>
       <c r="D56" s="4">
         <v>241.3</v>
@@ -4244,10 +4300,11 @@
         <v>1997</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="4">
-        <v>153.19999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2758.3000000000006</v>
       </c>
       <c r="D57" s="4">
         <v>155.4</v>
@@ -4309,10 +4366,11 @@
         <v>1997</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="4">
-        <v>176.5</v>
+        <f t="shared" si="0"/>
+        <v>3177.3</v>
       </c>
       <c r="D58" s="4">
         <v>127.9</v>
@@ -4374,10 +4432,11 @@
         <v>1997</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="4">
-        <v>21.4</v>
+        <f t="shared" si="0"/>
+        <v>385.09999999999997</v>
       </c>
       <c r="D59" s="4">
         <v>29.5</v>
@@ -4439,10 +4498,11 @@
         <v>1997</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="4">
-        <v>129.30000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2327.1000000000004</v>
       </c>
       <c r="D60" s="4">
         <v>94.6</v>
@@ -4504,10 +4564,11 @@
         <v>1997</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" s="4">
-        <v>53.2</v>
+        <f t="shared" si="0"/>
+        <v>957.6</v>
       </c>
       <c r="D61" s="4">
         <v>35.6</v>
@@ -4569,10 +4630,11 @@
         <v>1998</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="4">
-        <v>43.5</v>
+        <f t="shared" si="0"/>
+        <v>783.30000000000018</v>
       </c>
       <c r="D62" s="4">
         <v>13.4</v>
@@ -4634,10 +4696,11 @@
         <v>1998</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4">
-        <v>50.6</v>
+        <f t="shared" si="0"/>
+        <v>911</v>
       </c>
       <c r="D63" s="4">
         <v>34.1</v>
@@ -4699,10 +4762,11 @@
         <v>1998</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4">
-        <v>25.9</v>
+        <f t="shared" si="0"/>
+        <v>466.50000000000006</v>
       </c>
       <c r="D64" s="4">
         <v>32.4</v>
@@ -4764,10 +4828,11 @@
         <v>1998</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="4">
-        <v>120.6</v>
+        <f t="shared" si="0"/>
+        <v>2170.8999999999996</v>
       </c>
       <c r="D65" s="4">
         <v>131.6</v>
@@ -4829,10 +4894,11 @@
         <v>1998</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4">
-        <v>84.1</v>
+        <f t="shared" si="0"/>
+        <v>1513.6000000000001</v>
       </c>
       <c r="D66" s="4">
         <v>92.2</v>
@@ -4894,10 +4960,11 @@
         <v>1998</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4">
-        <v>202.4</v>
+        <f t="shared" ref="C67:C130" si="1">SUM(D67:U67)</f>
+        <v>3642.8999999999996</v>
       </c>
       <c r="D67" s="4">
         <v>183.3</v>
@@ -4959,10 +5026,11 @@
         <v>1998</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="4">
-        <v>399</v>
+        <f t="shared" si="1"/>
+        <v>7181.5000000000009</v>
       </c>
       <c r="D68" s="4">
         <v>366</v>
@@ -5024,10 +5092,11 @@
         <v>1998</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="4">
-        <v>441.3</v>
+        <f t="shared" si="1"/>
+        <v>7943</v>
       </c>
       <c r="D69" s="4">
         <v>663.9</v>
@@ -5089,10 +5158,11 @@
         <v>1998</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="4">
-        <v>163.4</v>
+        <f t="shared" si="1"/>
+        <v>2941.0000000000005</v>
       </c>
       <c r="D70" s="4">
         <v>83.5</v>
@@ -5154,10 +5224,11 @@
         <v>1998</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4">
-        <v>69.099999999999994</v>
+        <f t="shared" si="1"/>
+        <v>1243.6000000000001</v>
       </c>
       <c r="D71" s="4">
         <v>36.200000000000003</v>
@@ -5219,10 +5290,11 @@
         <v>1998</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="4">
-        <v>50.9</v>
+        <f t="shared" si="1"/>
+        <v>916.5</v>
       </c>
       <c r="D72" s="4">
         <v>67.099999999999994</v>
@@ -5284,10 +5356,11 @@
         <v>1998</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="4">
-        <v>17.2</v>
+        <f t="shared" si="1"/>
+        <v>308.69999999999993</v>
       </c>
       <c r="D73" s="4">
         <v>3.9</v>
@@ -5349,10 +5422,11 @@
         <v>1999</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="4">
-        <v>4.0999999999999996</v>
+        <f t="shared" si="1"/>
+        <v>73.5</v>
       </c>
       <c r="D74" s="4">
         <v>5.6</v>
@@ -5414,10 +5488,11 @@
         <v>1999</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" s="4">
-        <v>4.4000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>78.900000000000006</v>
       </c>
       <c r="D75" s="4">
         <v>1.3</v>
@@ -5479,10 +5554,11 @@
         <v>1999</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="4">
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>1170.0999999999999</v>
       </c>
       <c r="D76" s="4">
         <v>47.2</v>
@@ -5544,10 +5620,11 @@
         <v>1999</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" s="4">
-        <v>111.4</v>
+        <f t="shared" si="1"/>
+        <v>2005.3</v>
       </c>
       <c r="D77" s="4">
         <v>75</v>
@@ -5609,10 +5686,11 @@
         <v>1999</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78" s="4">
-        <v>128.9</v>
+        <f t="shared" si="1"/>
+        <v>2319.7000000000003</v>
       </c>
       <c r="D78" s="4">
         <v>103.8</v>
@@ -5674,10 +5752,11 @@
         <v>1999</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="4">
-        <v>111.6</v>
+        <f t="shared" si="1"/>
+        <v>2008.6000000000001</v>
       </c>
       <c r="D79" s="4">
         <v>93.4</v>
@@ -5739,10 +5818,11 @@
         <v>1999</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="4">
-        <v>235.4</v>
+        <f t="shared" si="1"/>
+        <v>4236.7999999999993</v>
       </c>
       <c r="D80" s="4">
         <v>226.1</v>
@@ -5804,10 +5884,11 @@
         <v>1999</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="4">
-        <v>467.8</v>
+        <f t="shared" si="1"/>
+        <v>8420.1</v>
       </c>
       <c r="D81" s="4">
         <v>563</v>
@@ -5869,10 +5950,11 @@
         <v>1999</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="4">
-        <v>395.6</v>
+        <f t="shared" si="1"/>
+        <v>7119.9</v>
       </c>
       <c r="D82" s="4">
         <v>348.3</v>
@@ -5934,10 +6016,11 @@
         <v>1999</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" s="4">
-        <v>96.6</v>
+        <f t="shared" si="1"/>
+        <v>1738.1999999999998</v>
       </c>
       <c r="D83" s="4">
         <v>93.1</v>
@@ -5999,10 +6082,11 @@
         <v>1999</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" s="4">
-        <v>43.7</v>
+        <f t="shared" si="1"/>
+        <v>786.5999999999998</v>
       </c>
       <c r="D84" s="4">
         <v>19.3</v>
@@ -6064,10 +6148,11 @@
         <v>1999</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="4">
-        <v>7.2</v>
+        <f t="shared" si="1"/>
+        <v>129.69999999999999</v>
       </c>
       <c r="D85" s="4">
         <v>10.8</v>
@@ -6129,10 +6214,11 @@
         <v>2000</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="4">
-        <v>60.2</v>
+        <f t="shared" si="1"/>
+        <v>1082.8999999999999</v>
       </c>
       <c r="D86" s="4">
         <v>46.6</v>
@@ -6194,10 +6280,11 @@
         <v>2000</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="4">
-        <v>6.2</v>
+        <f t="shared" si="1"/>
+        <v>111.50000000000001</v>
       </c>
       <c r="D87" s="4">
         <v>4</v>
@@ -6259,10 +6346,11 @@
         <v>2000</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" s="4">
-        <v>13.8</v>
+        <f t="shared" si="1"/>
+        <v>248.29999999999995</v>
       </c>
       <c r="D88" s="4">
         <v>14.3</v>
@@ -6324,10 +6412,11 @@
         <v>2000</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C89" s="4">
-        <v>35.9</v>
+        <f t="shared" si="1"/>
+        <v>646.4</v>
       </c>
       <c r="D89" s="4">
         <v>15.3</v>
@@ -6389,10 +6478,11 @@
         <v>2000</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="4">
-        <v>75.099999999999994</v>
+        <f t="shared" si="1"/>
+        <v>1351.2</v>
       </c>
       <c r="D90" s="4">
         <v>80.099999999999994</v>
@@ -6454,10 +6544,11 @@
         <v>2000</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4">
-        <v>131.5</v>
+        <f t="shared" si="1"/>
+        <v>2366.2999999999997</v>
       </c>
       <c r="D91" s="4">
         <v>113.2</v>
@@ -6519,10 +6610,11 @@
         <v>2000</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="4">
-        <v>160.4</v>
+        <f t="shared" si="1"/>
+        <v>2886.6</v>
       </c>
       <c r="D92" s="4">
         <v>182.2</v>
@@ -6584,10 +6676,11 @@
         <v>2000</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="4">
-        <v>353.5</v>
+        <f t="shared" si="1"/>
+        <v>6363.1</v>
       </c>
       <c r="D93" s="4">
         <v>494</v>
@@ -6649,10 +6742,11 @@
         <v>2000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="4">
-        <v>294</v>
+        <f t="shared" si="1"/>
+        <v>5292</v>
       </c>
       <c r="D94" s="4">
         <v>127.4</v>
@@ -6714,10 +6808,11 @@
         <v>2000</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="4">
-        <v>13.7</v>
+        <f t="shared" si="1"/>
+        <v>246.3</v>
       </c>
       <c r="D95" s="4">
         <v>16.899999999999999</v>
@@ -6779,10 +6874,11 @@
         <v>2000</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" s="4">
-        <v>41.2</v>
+        <f t="shared" si="1"/>
+        <v>741.09999999999991</v>
       </c>
       <c r="D96" s="4">
         <v>25.4</v>
@@ -6844,10 +6940,11 @@
         <v>2000</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="4">
-        <v>15.7</v>
+        <f t="shared" si="1"/>
+        <v>282.00000000000006</v>
       </c>
       <c r="D97" s="4">
         <v>35.5</v>
@@ -6909,10 +7006,11 @@
         <v>2001</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="4">
-        <v>45.6</v>
+        <f t="shared" si="1"/>
+        <v>820.80000000000007</v>
       </c>
       <c r="D98" s="4">
         <v>32.799999999999997</v>
@@ -6974,10 +7072,11 @@
         <v>2001</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="4">
-        <v>49.7</v>
+        <f t="shared" si="1"/>
+        <v>894.5</v>
       </c>
       <c r="D99" s="4">
         <v>30.5</v>
@@ -7039,10 +7138,11 @@
         <v>2001</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="4">
-        <v>20.2</v>
+        <f t="shared" si="1"/>
+        <v>363</v>
       </c>
       <c r="D100" s="4">
         <v>14.8</v>
@@ -7104,10 +7204,11 @@
         <v>2001</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101" s="4">
-        <v>18.7</v>
+        <f t="shared" si="1"/>
+        <v>337.1</v>
       </c>
       <c r="D101" s="4">
         <v>13.6</v>
@@ -7169,10 +7270,11 @@
         <v>2001</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102" s="4">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>360.09999999999997</v>
       </c>
       <c r="D102" s="4">
         <v>12.3</v>
@@ -7234,10 +7336,11 @@
         <v>2001</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" s="4">
-        <v>177</v>
+        <f t="shared" si="1"/>
+        <v>3185.6999999999994</v>
       </c>
       <c r="D103" s="4">
         <v>178</v>
@@ -7299,10 +7402,11 @@
         <v>2001</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" s="4">
-        <v>304.3</v>
+        <f t="shared" si="1"/>
+        <v>5477.6000000000013</v>
       </c>
       <c r="D104" s="4">
         <v>520</v>
@@ -7364,10 +7468,11 @@
         <v>2001</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C105" s="4">
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>1854.4000000000003</v>
       </c>
       <c r="D105" s="4">
         <v>193</v>
@@ -7429,10 +7534,11 @@
         <v>2001</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="4">
-        <v>157.19999999999999</v>
+        <f t="shared" si="1"/>
+        <v>2829</v>
       </c>
       <c r="D106" s="4">
         <v>8.9</v>
@@ -7494,10 +7600,11 @@
         <v>2001</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C107" s="4">
-        <v>132.4</v>
+        <f t="shared" si="1"/>
+        <v>2383.8999999999996</v>
       </c>
       <c r="D107" s="4">
         <v>72.599999999999994</v>
@@ -7559,10 +7666,11 @@
         <v>2001</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" s="4">
-        <v>24.1</v>
+        <f t="shared" si="1"/>
+        <v>433.4</v>
       </c>
       <c r="D108" s="4">
         <v>12.3</v>
@@ -7624,10 +7732,11 @@
         <v>2001</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C109" s="4">
-        <v>17.899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>321.60000000000002</v>
       </c>
       <c r="D109" s="4">
         <v>18.5</v>
@@ -7689,10 +7798,11 @@
         <v>2002</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" s="4">
-        <v>63.1</v>
+        <f t="shared" si="1"/>
+        <v>1135.8</v>
       </c>
       <c r="D110" s="4">
         <v>62.2</v>
@@ -7754,10 +7864,11 @@
         <v>2002</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>36.5</v>
       </c>
       <c r="D111" s="4">
         <v>4.5999999999999996</v>
@@ -7819,10 +7930,11 @@
         <v>2002</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" s="4">
-        <v>28.2</v>
+        <f t="shared" si="1"/>
+        <v>507.00000000000006</v>
       </c>
       <c r="D112" s="4">
         <v>36.700000000000003</v>
@@ -7884,10 +7996,11 @@
         <v>2002</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C113" s="4">
-        <v>114.6</v>
+        <f t="shared" si="1"/>
+        <v>2063.1999999999998</v>
       </c>
       <c r="D113" s="4">
         <v>143.80000000000001</v>
@@ -7949,10 +8062,11 @@
         <v>2002</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C114" s="4">
-        <v>91.5</v>
+        <f t="shared" si="1"/>
+        <v>1646.3000000000002</v>
       </c>
       <c r="D114" s="4">
         <v>55.6</v>
@@ -8014,10 +8128,11 @@
         <v>2002</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" s="4">
-        <v>74.400000000000006</v>
+        <f t="shared" si="1"/>
+        <v>1338.5</v>
       </c>
       <c r="D115" s="4">
         <v>79.599999999999994</v>
@@ -8079,10 +8194,11 @@
         <v>2002</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4">
-        <v>247.8</v>
+        <f t="shared" si="1"/>
+        <v>4460.8999999999996</v>
       </c>
       <c r="D116" s="4">
         <v>214.6</v>
@@ -8144,10 +8260,11 @@
         <v>2002</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="4">
-        <v>653.4</v>
+        <f t="shared" si="1"/>
+        <v>11760.600000000002</v>
       </c>
       <c r="D117" s="4">
         <v>413.2</v>
@@ -8209,10 +8326,11 @@
         <v>2002</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="4">
-        <v>102.7</v>
+        <f t="shared" si="1"/>
+        <v>1849.2000000000003</v>
       </c>
       <c r="D118" s="4">
         <v>55</v>
@@ -8274,10 +8392,11 @@
         <v>2002</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" s="4">
-        <v>88.8</v>
+        <f t="shared" si="1"/>
+        <v>1598.6999999999996</v>
       </c>
       <c r="D119" s="4">
         <v>70.3</v>
@@ -8339,10 +8458,11 @@
         <v>2002</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C120" s="4">
-        <v>6.3</v>
+        <f t="shared" si="1"/>
+        <v>112.8</v>
       </c>
       <c r="D120" s="4">
         <v>14.3</v>
@@ -8404,10 +8524,11 @@
         <v>2002</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" s="4">
-        <v>69.900000000000006</v>
+        <f t="shared" si="1"/>
+        <v>1257.7999999999997</v>
       </c>
       <c r="D121" s="4">
         <v>27.8</v>
@@ -8469,10 +8590,11 @@
         <v>2003</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C122" s="4">
-        <v>30.5</v>
+        <f t="shared" si="1"/>
+        <v>549.1</v>
       </c>
       <c r="D122" s="4">
         <v>15.9</v>
@@ -8534,10 +8656,11 @@
         <v>2003</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C123" s="4">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>954.6</v>
       </c>
       <c r="D123" s="4">
         <v>36</v>
@@ -8599,10 +8722,11 @@
         <v>2003</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C124" s="4">
-        <v>46.3</v>
+        <f t="shared" si="1"/>
+        <v>833.6</v>
       </c>
       <c r="D124" s="4">
         <v>27.3</v>
@@ -8664,10 +8788,11 @@
         <v>2003</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C125" s="4">
-        <v>165.8</v>
+        <f t="shared" si="1"/>
+        <v>2984.5</v>
       </c>
       <c r="D125" s="4">
         <v>147</v>
@@ -8729,10 +8854,11 @@
         <v>2003</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C126" s="4">
-        <v>128.4</v>
+        <f t="shared" si="1"/>
+        <v>2310.6</v>
       </c>
       <c r="D126" s="4">
         <v>125.5</v>
@@ -8794,10 +8920,11 @@
         <v>2003</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C127" s="4">
-        <v>149.69999999999999</v>
+        <f t="shared" si="1"/>
+        <v>2695.1</v>
       </c>
       <c r="D127" s="4">
         <v>121.9</v>
@@ -8859,10 +8986,11 @@
         <v>2003</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" s="4">
-        <v>301</v>
+        <f t="shared" si="1"/>
+        <v>5418.5</v>
       </c>
       <c r="D128" s="4">
         <v>340.9</v>
@@ -8924,10 +9052,11 @@
         <v>2003</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C129" s="4">
-        <v>421.6</v>
+        <f t="shared" si="1"/>
+        <v>7588.5</v>
       </c>
       <c r="D129" s="4">
         <v>632.70000000000005</v>
@@ -8989,10 +9118,11 @@
         <v>2003</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C130" s="4">
-        <v>380.2</v>
+        <f t="shared" si="1"/>
+        <v>6843.9999999999991</v>
       </c>
       <c r="D130" s="4">
         <v>313</v>
@@ -9054,10 +9184,11 @@
         <v>2003</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C131" s="4">
-        <v>63.3</v>
+        <f t="shared" ref="C131:C194" si="2">SUM(D131:U131)</f>
+        <v>1139.0999999999999</v>
       </c>
       <c r="D131" s="4">
         <v>33.1</v>
@@ -9119,10 +9250,11 @@
         <v>2003</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C132" s="4">
-        <v>135.6</v>
+        <f t="shared" si="2"/>
+        <v>2440.8999999999996</v>
       </c>
       <c r="D132" s="4">
         <v>66</v>
@@ -9184,10 +9316,11 @@
         <v>2003</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C133" s="4">
-        <v>7.6</v>
+        <f t="shared" si="2"/>
+        <v>136.40000000000003</v>
       </c>
       <c r="D133" s="4">
         <v>6.5</v>
@@ -9249,10 +9382,11 @@
         <v>2004</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C134" s="4">
-        <v>13.9</v>
+        <f t="shared" si="2"/>
+        <v>250.1</v>
       </c>
       <c r="D134" s="4">
         <v>10.9</v>
@@ -9314,10 +9448,11 @@
         <v>2004</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C135" s="4">
-        <v>38.4</v>
+        <f t="shared" si="2"/>
+        <v>691.1</v>
       </c>
       <c r="D135" s="4">
         <v>58.8</v>
@@ -9379,10 +9514,11 @@
         <v>2004</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136" s="4">
-        <v>16.3</v>
+        <f t="shared" si="2"/>
+        <v>293.60000000000008</v>
       </c>
       <c r="D136" s="4">
         <v>20.399999999999999</v>
@@ -9444,10 +9580,11 @@
         <v>2004</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137" s="4">
-        <v>84.3</v>
+        <f t="shared" si="2"/>
+        <v>1517.9000000000003</v>
       </c>
       <c r="D137" s="4">
         <v>59.7</v>
@@ -9509,10 +9646,11 @@
         <v>2004</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C138" s="4">
-        <v>87.1</v>
+        <f t="shared" si="2"/>
+        <v>1567.2000000000003</v>
       </c>
       <c r="D138" s="4">
         <v>135</v>
@@ -9574,10 +9712,11 @@
         <v>2004</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C139" s="4">
-        <v>180.6</v>
+        <f t="shared" si="2"/>
+        <v>3250.5</v>
       </c>
       <c r="D139" s="4">
         <v>106</v>
@@ -9639,10 +9778,11 @@
         <v>2004</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C140" s="4">
-        <v>417.6</v>
+        <f t="shared" si="2"/>
+        <v>7515.9</v>
       </c>
       <c r="D140" s="4">
         <v>532</v>
@@ -9704,10 +9844,11 @@
         <v>2004</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" s="4">
-        <v>308.2</v>
+        <f t="shared" si="2"/>
+        <v>5548.1</v>
       </c>
       <c r="D141" s="4">
         <v>216</v>
@@ -9769,10 +9910,11 @@
         <v>2004</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" s="4">
-        <v>183.2</v>
+        <f t="shared" si="2"/>
+        <v>3298.3</v>
       </c>
       <c r="D142" s="4">
         <v>194</v>
@@ -9834,10 +9976,11 @@
         <v>2004</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" s="4">
-        <v>10.199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>184.2</v>
       </c>
       <c r="D143" s="4">
         <v>1.8</v>
@@ -9873,7 +10016,7 @@
         <v>5</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P143" s="4">
         <v>14.1</v>
@@ -9899,10 +10042,11 @@
         <v>2004</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C144" s="4">
-        <v>31.6</v>
+        <f t="shared" si="2"/>
+        <v>568.70000000000005</v>
       </c>
       <c r="D144" s="4">
         <v>43</v>
@@ -9964,10 +10108,11 @@
         <v>2004</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C145" s="4">
-        <v>16.3</v>
+        <f t="shared" si="2"/>
+        <v>293</v>
       </c>
       <c r="D145" s="4">
         <v>27.2</v>
@@ -10029,10 +10174,11 @@
         <v>2005</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C146" s="4">
-        <v>18.2</v>
+        <f t="shared" si="2"/>
+        <v>328.09999999999997</v>
       </c>
       <c r="D146" s="4">
         <v>3.7</v>
@@ -10094,10 +10240,11 @@
         <v>2005</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C147" s="4">
-        <v>42.4</v>
+        <f t="shared" si="2"/>
+        <v>763.4</v>
       </c>
       <c r="D147" s="4">
         <v>30.8</v>
@@ -10159,10 +10306,11 @@
         <v>2005</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C148" s="4">
-        <v>62.5</v>
+        <f t="shared" si="2"/>
+        <v>1124.8</v>
       </c>
       <c r="D148" s="4">
         <v>17.5</v>
@@ -10224,10 +10372,11 @@
         <v>2005</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C149" s="4">
-        <v>64.8</v>
+        <f t="shared" si="2"/>
+        <v>1165.9000000000001</v>
       </c>
       <c r="D149" s="4">
         <v>86.5</v>
@@ -10289,10 +10438,11 @@
         <v>2005</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C150" s="4">
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>1296.3000000000002</v>
       </c>
       <c r="D150" s="4">
         <v>72.3</v>
@@ -10354,10 +10504,11 @@
         <v>2005</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C151" s="4">
-        <v>165</v>
+        <f t="shared" si="2"/>
+        <v>2970.1999999999994</v>
       </c>
       <c r="D151" s="4">
         <v>160</v>
@@ -10419,10 +10570,11 @@
         <v>2005</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C152" s="4">
-        <v>284.7</v>
+        <f t="shared" si="2"/>
+        <v>5124.2999999999993</v>
       </c>
       <c r="D152" s="4">
         <v>321.7</v>
@@ -10484,10 +10636,11 @@
         <v>2005</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C153" s="4">
-        <v>283.7</v>
+        <f t="shared" si="2"/>
+        <v>5106.0999999999995</v>
       </c>
       <c r="D153" s="4">
         <v>340.5</v>
@@ -10549,10 +10702,11 @@
         <v>2005</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" s="4">
-        <v>322.2</v>
+        <f t="shared" si="2"/>
+        <v>5799.8999999999987</v>
       </c>
       <c r="D154" s="4">
         <v>210.5</v>
@@ -10614,10 +10768,11 @@
         <v>2005</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C155" s="4">
-        <v>72.7</v>
+        <f t="shared" si="2"/>
+        <v>1308.3999999999999</v>
       </c>
       <c r="D155" s="4">
         <v>32.299999999999997</v>
@@ -10679,10 +10834,11 @@
         <v>2005</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C156" s="4">
-        <v>27.5</v>
+        <f t="shared" si="2"/>
+        <v>495.09999999999997</v>
       </c>
       <c r="D156" s="4">
         <v>48.8</v>
@@ -10744,10 +10900,11 @@
         <v>2005</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C157" s="4">
-        <v>5.3</v>
+        <f t="shared" si="2"/>
+        <v>94.800000000000011</v>
       </c>
       <c r="D157" s="4">
         <v>9.6</v>
@@ -10809,10 +10966,11 @@
         <v>2006</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C158" s="4">
-        <v>35.200000000000003</v>
+        <f t="shared" si="2"/>
+        <v>633.79999999999995</v>
       </c>
       <c r="D158" s="4">
         <v>34.200000000000003</v>
@@ -10874,10 +11032,11 @@
         <v>2006</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C159" s="4">
-        <v>19.600000000000001</v>
+        <f t="shared" si="2"/>
+        <v>353.3</v>
       </c>
       <c r="D159" s="4">
         <v>13.5</v>
@@ -10939,10 +11098,11 @@
         <v>2006</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C160" s="4">
-        <v>14.3</v>
+        <f t="shared" si="2"/>
+        <v>256.5</v>
       </c>
       <c r="D160" s="4">
         <v>18</v>
@@ -11004,10 +11164,11 @@
         <v>2006</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C161" s="4">
-        <v>93.1</v>
+        <f t="shared" si="2"/>
+        <v>1675.4</v>
       </c>
       <c r="D161" s="4">
         <v>81</v>
@@ -11069,10 +11230,11 @@
         <v>2006</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C162" s="4">
-        <v>116.8</v>
+        <f t="shared" si="2"/>
+        <v>2102.9</v>
       </c>
       <c r="D162" s="4">
         <v>125.8</v>
@@ -11134,10 +11296,11 @@
         <v>2006</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C163" s="4">
-        <v>145.30000000000001</v>
+        <f t="shared" si="2"/>
+        <v>2614.8999999999996</v>
       </c>
       <c r="D163" s="4">
         <v>164</v>
@@ -11199,10 +11362,11 @@
         <v>2006</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C164" s="4">
-        <v>789</v>
+        <f t="shared" si="2"/>
+        <v>14201.199999999999</v>
       </c>
       <c r="D164" s="4">
         <v>908.2</v>
@@ -11264,10 +11428,11 @@
         <v>2006</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C165" s="4">
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>2555.6000000000004</v>
       </c>
       <c r="D165" s="4">
         <v>136.80000000000001</v>
@@ -11329,10 +11494,11 @@
         <v>2006</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C166" s="4">
-        <v>65.900000000000006</v>
+        <f t="shared" si="2"/>
+        <v>1186.9000000000001</v>
       </c>
       <c r="D166" s="4">
         <v>19.8</v>
@@ -11394,10 +11560,11 @@
         <v>2006</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" s="4">
-        <v>127</v>
+        <f t="shared" si="2"/>
+        <v>2286.6</v>
       </c>
       <c r="D167" s="4">
         <v>81.5</v>
@@ -11459,10 +11626,11 @@
         <v>2006</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C168" s="4">
-        <v>70.8</v>
+        <f t="shared" si="2"/>
+        <v>1273.5</v>
       </c>
       <c r="D168" s="4">
         <v>62</v>
@@ -11524,10 +11692,11 @@
         <v>2006</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C169" s="4">
-        <v>21.2</v>
+        <f t="shared" si="2"/>
+        <v>381.59999999999991</v>
       </c>
       <c r="D169" s="4">
         <v>14.6</v>
@@ -11589,10 +11758,11 @@
         <v>2007</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C170" s="4">
-        <v>13.5</v>
+        <f t="shared" si="2"/>
+        <v>243.70000000000005</v>
       </c>
       <c r="D170" s="4">
         <v>6.3</v>
@@ -11654,10 +11824,11 @@
         <v>2007</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C171" s="4">
-        <v>18.7</v>
+        <f t="shared" si="2"/>
+        <v>336.99999999999994</v>
       </c>
       <c r="D171" s="4">
         <v>12</v>
@@ -11719,10 +11890,11 @@
         <v>2007</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C172" s="4">
-        <v>120.2</v>
+        <f t="shared" si="2"/>
+        <v>2163.3000000000002</v>
       </c>
       <c r="D172" s="4">
         <v>109.3</v>
@@ -11784,10 +11956,11 @@
         <v>2007</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C173" s="4">
-        <v>34.700000000000003</v>
+        <f t="shared" si="2"/>
+        <v>624.1</v>
       </c>
       <c r="D173" s="4">
         <v>45.1</v>
@@ -11849,10 +12022,11 @@
         <v>2007</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C174" s="4">
-        <v>121.4</v>
+        <f t="shared" si="2"/>
+        <v>2184.3000000000002</v>
       </c>
       <c r="D174" s="4">
         <v>138.5</v>
@@ -11914,10 +12088,11 @@
         <v>2007</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C175" s="4">
-        <v>82.9</v>
+        <f t="shared" si="2"/>
+        <v>1493</v>
       </c>
       <c r="D175" s="4">
         <v>53.9</v>
@@ -11979,10 +12154,11 @@
         <v>2007</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C176" s="4">
-        <v>261.39999999999998</v>
+        <f t="shared" si="2"/>
+        <v>4705.5</v>
       </c>
       <c r="D176" s="4">
         <v>217.9</v>
@@ -12044,10 +12220,11 @@
         <v>2007</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C177" s="4">
-        <v>353.3</v>
+        <f t="shared" si="2"/>
+        <v>6360</v>
       </c>
       <c r="D177" s="4">
         <v>446</v>
@@ -12109,10 +12286,11 @@
         <v>2007</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C178" s="4">
-        <v>356.2</v>
+        <f t="shared" si="2"/>
+        <v>6412.4</v>
       </c>
       <c r="D178" s="4">
         <v>286.10000000000002</v>
@@ -12174,10 +12352,11 @@
         <v>2007</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" s="4">
-        <v>37.4</v>
+        <f t="shared" si="2"/>
+        <v>673.3</v>
       </c>
       <c r="D179" s="4">
         <v>26.7</v>
@@ -12239,10 +12418,11 @@
         <v>2007</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C180" s="4">
-        <v>29.9</v>
+        <f t="shared" si="2"/>
+        <v>538</v>
       </c>
       <c r="D180" s="4">
         <v>22.3</v>
@@ -12304,10 +12484,11 @@
         <v>2007</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C181" s="4">
-        <v>9.1999999999999993</v>
+        <f t="shared" si="2"/>
+        <v>166</v>
       </c>
       <c r="D181" s="4">
         <v>10.8</v>
@@ -12369,10 +12550,11 @@
         <v>2008</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="4">
-        <v>39.6</v>
+        <f t="shared" si="2"/>
+        <v>712.10000000000014</v>
       </c>
       <c r="D182" s="4">
         <v>9.6999999999999993</v>
@@ -12434,10 +12616,11 @@
         <v>2008</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C183" s="4">
-        <v>4.8</v>
+        <f t="shared" si="2"/>
+        <v>87.199999999999989</v>
       </c>
       <c r="D183" s="4">
         <v>5.4</v>
@@ -12499,10 +12682,11 @@
         <v>2008</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C184" s="4">
-        <v>76.5</v>
+        <f t="shared" si="2"/>
+        <v>1376.5</v>
       </c>
       <c r="D184" s="4">
         <v>61.6</v>
@@ -12564,10 +12748,11 @@
         <v>2008</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C185" s="4">
-        <v>34.1</v>
+        <f t="shared" si="2"/>
+        <v>613.59999999999991</v>
       </c>
       <c r="D185" s="4">
         <v>34</v>
@@ -12629,10 +12814,11 @@
         <v>2008</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C186" s="4">
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>1368.4</v>
       </c>
       <c r="D186" s="4">
         <v>108.2</v>
@@ -12694,10 +12880,11 @@
         <v>2008</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C187" s="4">
-        <v>108.3</v>
+        <f t="shared" si="2"/>
+        <v>1950.1999999999996</v>
       </c>
       <c r="D187" s="4">
         <v>170.1</v>
@@ -12759,10 +12946,11 @@
         <v>2008</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C188" s="4">
-        <v>401.3</v>
+        <f t="shared" si="2"/>
+        <v>7222.6000000000013</v>
       </c>
       <c r="D188" s="4">
         <v>597.29999999999995</v>
@@ -12824,10 +13012,11 @@
         <v>2008</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C189" s="4">
-        <v>251.2</v>
+        <f t="shared" si="2"/>
+        <v>4520.7000000000007</v>
       </c>
       <c r="D189" s="4">
         <v>297.5</v>
@@ -12889,10 +13078,11 @@
         <v>2008</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C190" s="4">
-        <v>91.5</v>
+        <f t="shared" si="2"/>
+        <v>1647.4</v>
       </c>
       <c r="D190" s="4">
         <v>83.3</v>
@@ -12954,10 +13144,11 @@
         <v>2008</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C191" s="4">
-        <v>37.6</v>
+        <f t="shared" si="2"/>
+        <v>677.60000000000014</v>
       </c>
       <c r="D191" s="4">
         <v>28.5</v>
@@ -13019,10 +13210,11 @@
         <v>2008</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C192" s="4">
-        <v>31.4</v>
+        <f t="shared" si="2"/>
+        <v>565.30000000000018</v>
       </c>
       <c r="D192" s="4">
         <v>13.6</v>
@@ -13084,10 +13276,11 @@
         <v>2008</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C193" s="4">
-        <v>37.5</v>
+        <f t="shared" si="2"/>
+        <v>675</v>
       </c>
       <c r="D193" s="4">
         <v>30.2</v>
@@ -13149,10 +13342,11 @@
         <v>2009</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C194" s="4">
-        <v>12.6</v>
+        <f t="shared" si="2"/>
+        <v>227.5</v>
       </c>
       <c r="D194" s="4">
         <v>3.4</v>
@@ -13214,10 +13408,11 @@
         <v>2009</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C195" s="4">
-        <v>28</v>
+        <f t="shared" ref="C195:C258" si="3">SUM(D195:U195)</f>
+        <v>503.1</v>
       </c>
       <c r="D195" s="4">
         <v>31.2</v>
@@ -13279,10 +13474,11 @@
         <v>2009</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C196" s="4">
-        <v>64.599999999999994</v>
+        <f t="shared" si="3"/>
+        <v>1163.5999999999999</v>
       </c>
       <c r="D196" s="4">
         <v>55.4</v>
@@ -13344,10 +13540,11 @@
         <v>2009</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C197" s="4">
-        <v>64.2</v>
+        <f t="shared" si="3"/>
+        <v>1154.7</v>
       </c>
       <c r="D197" s="4">
         <v>62</v>
@@ -13409,10 +13606,11 @@
         <v>2009</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C198" s="4">
-        <v>80.400000000000006</v>
+        <f t="shared" si="3"/>
+        <v>1447</v>
       </c>
       <c r="D198" s="4">
         <v>97.9</v>
@@ -13474,10 +13672,11 @@
         <v>2009</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C199" s="4">
-        <v>136.80000000000001</v>
+        <f t="shared" si="3"/>
+        <v>2462.1999999999998</v>
       </c>
       <c r="D199" s="4">
         <v>156.9</v>
@@ -13539,10 +13738,11 @@
         <v>2009</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C200" s="4">
-        <v>481.4</v>
+        <f t="shared" si="3"/>
+        <v>8664.9000000000015</v>
       </c>
       <c r="D200" s="4">
         <v>627.70000000000005</v>
@@ -13604,10 +13804,11 @@
         <v>2009</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C201" s="4">
-        <v>233.4</v>
+        <f t="shared" si="3"/>
+        <v>4202</v>
       </c>
       <c r="D201" s="4">
         <v>279.39999999999998</v>
@@ -13669,10 +13870,11 @@
         <v>2009</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C202" s="4">
-        <v>37.6</v>
+        <f t="shared" si="3"/>
+        <v>676.5</v>
       </c>
       <c r="D202" s="4">
         <v>23.3</v>
@@ -13734,10 +13936,11 @@
         <v>2009</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C203" s="4">
-        <v>42.6</v>
+        <f t="shared" si="3"/>
+        <v>767.39999999999986</v>
       </c>
       <c r="D203" s="4">
         <v>41.9</v>
@@ -13799,10 +14002,11 @@
         <v>2009</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C204" s="4">
-        <v>101.5</v>
+        <f t="shared" si="3"/>
+        <v>1827.2999999999997</v>
       </c>
       <c r="D204" s="4">
         <v>49.4</v>
@@ -13864,10 +14068,11 @@
         <v>2009</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C205" s="4">
-        <v>21.2</v>
+        <f t="shared" si="3"/>
+        <v>381.2</v>
       </c>
       <c r="D205" s="4">
         <v>18.399999999999999</v>
@@ -13929,10 +14134,11 @@
         <v>2010</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C206" s="4">
-        <v>36.799999999999997</v>
+        <f t="shared" si="3"/>
+        <v>662.7</v>
       </c>
       <c r="D206" s="4">
         <v>40.6</v>
@@ -13994,10 +14200,11 @@
         <v>2010</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C207" s="4">
-        <v>69.900000000000006</v>
+        <f t="shared" si="3"/>
+        <v>1258</v>
       </c>
       <c r="D207" s="4">
         <v>35.4</v>
@@ -14059,10 +14266,11 @@
         <v>2010</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C208" s="4">
-        <v>102.3</v>
+        <f t="shared" si="3"/>
+        <v>1840.9999999999998</v>
       </c>
       <c r="D208" s="4">
         <v>65.8</v>
@@ -14124,10 +14332,11 @@
         <v>2010</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C209" s="4">
-        <v>52.3</v>
+        <f t="shared" si="3"/>
+        <v>940.80000000000018</v>
       </c>
       <c r="D209" s="4">
         <v>64.2</v>
@@ -14189,10 +14398,11 @@
         <v>2010</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C210" s="4">
-        <v>108.9</v>
+        <f t="shared" si="3"/>
+        <v>1960.5</v>
       </c>
       <c r="D210" s="4">
         <v>106.1</v>
@@ -14254,10 +14464,11 @@
         <v>2010</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C211" s="4">
-        <v>53.1</v>
+        <f t="shared" si="3"/>
+        <v>955.4</v>
       </c>
       <c r="D211" s="4">
         <v>54.9</v>
@@ -14319,10 +14530,11 @@
         <v>2010</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C212" s="4">
-        <v>143.69999999999999</v>
+        <f t="shared" si="3"/>
+        <v>2587.3000000000002</v>
       </c>
       <c r="D212" s="4">
         <v>220.5</v>
@@ -14384,10 +14596,11 @@
         <v>2010</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C213" s="4">
-        <v>321.7</v>
+        <f t="shared" si="3"/>
+        <v>5790.5</v>
       </c>
       <c r="D213" s="4">
         <v>468.1</v>
@@ -14449,10 +14662,11 @@
         <v>2010</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C214" s="4">
-        <v>375.5</v>
+        <f t="shared" si="3"/>
+        <v>6759.8000000000011</v>
       </c>
       <c r="D214" s="4">
         <v>448.5</v>
@@ -14514,10 +14728,11 @@
         <v>2010</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C215" s="4">
-        <v>43.4</v>
+        <f t="shared" si="3"/>
+        <v>780.6</v>
       </c>
       <c r="D215" s="4">
         <v>31.1</v>
@@ -14579,10 +14794,11 @@
         <v>2010</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C216" s="4">
-        <v>17.3</v>
+        <f t="shared" si="3"/>
+        <v>311.90000000000003</v>
       </c>
       <c r="D216" s="4">
         <v>13.9</v>
@@ -14644,10 +14860,11 @@
         <v>2010</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C217" s="4">
-        <v>19.3</v>
+        <f t="shared" si="3"/>
+        <v>347.09999999999997</v>
       </c>
       <c r="D217" s="4">
         <v>32.299999999999997</v>
@@ -14709,10 +14926,11 @@
         <v>2011</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C218" s="4">
-        <v>8.9</v>
+        <f t="shared" si="3"/>
+        <v>160.9</v>
       </c>
       <c r="D218" s="4">
         <v>5.3</v>
@@ -14774,10 +14992,11 @@
         <v>2011</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C219" s="4">
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>1385.8999999999999</v>
       </c>
       <c r="D219" s="4">
         <v>34.5</v>
@@ -14839,10 +15058,11 @@
         <v>2011</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C220" s="4">
-        <v>25.3</v>
+        <f t="shared" si="3"/>
+        <v>456.2</v>
       </c>
       <c r="D220" s="4">
         <v>12.7</v>
@@ -14904,10 +15124,11 @@
         <v>2011</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C221" s="4">
-        <v>126.9</v>
+        <f t="shared" si="3"/>
+        <v>2284.4999999999995</v>
       </c>
       <c r="D221" s="4">
         <v>116.6</v>
@@ -14969,10 +15190,11 @@
         <v>2011</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C222" s="4">
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>1853.1</v>
       </c>
       <c r="D222" s="4">
         <v>119.5</v>
@@ -15034,10 +15256,11 @@
         <v>2011</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C223" s="4">
-        <v>372.1</v>
+        <f t="shared" si="3"/>
+        <v>6698.1</v>
       </c>
       <c r="D223" s="4">
         <v>459.6</v>
@@ -15099,10 +15322,11 @@
         <v>2011</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C224" s="4">
-        <v>585.5</v>
+        <f t="shared" si="3"/>
+        <v>10538.3</v>
       </c>
       <c r="D224" s="4">
         <v>932.5</v>
@@ -15164,10 +15388,11 @@
         <v>2011</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C225" s="4">
-        <v>188</v>
+        <f t="shared" si="3"/>
+        <v>3384.8</v>
       </c>
       <c r="D225" s="4">
         <v>161.1</v>
@@ -15229,10 +15454,11 @@
         <v>2011</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C226" s="4">
-        <v>141.1</v>
+        <f t="shared" si="3"/>
+        <v>2539.1</v>
       </c>
       <c r="D226" s="4">
         <v>64.5</v>
@@ -15294,10 +15520,11 @@
         <v>2011</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C227" s="4">
-        <v>40.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>725.50000000000023</v>
       </c>
       <c r="D227" s="4">
         <v>23.6</v>
@@ -15359,10 +15586,11 @@
         <v>2011</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C228" s="4">
-        <v>93.2</v>
+        <f t="shared" si="3"/>
+        <v>1677.9</v>
       </c>
       <c r="D228" s="4">
         <v>82.8</v>
@@ -15424,10 +15652,11 @@
         <v>2011</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C229" s="4">
-        <v>42.7</v>
+        <f t="shared" si="3"/>
+        <v>769.00000000000011</v>
       </c>
       <c r="D229" s="4">
         <v>16.600000000000001</v>
@@ -15489,10 +15718,11 @@
         <v>2012</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C230" s="4">
-        <v>17.399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>312.89999999999998</v>
       </c>
       <c r="D230" s="4">
         <v>6.9</v>
@@ -15554,10 +15784,11 @@
         <v>2012</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C231" s="4">
-        <v>8.5</v>
+        <f t="shared" si="3"/>
+        <v>152.99999999999997</v>
       </c>
       <c r="D231" s="4">
         <v>1.7</v>
@@ -15619,10 +15850,11 @@
         <v>2012</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C232" s="4">
-        <v>66.900000000000006</v>
+        <f t="shared" si="3"/>
+        <v>1204.1999999999998</v>
       </c>
       <c r="D232" s="4">
         <v>38.6</v>
@@ -15684,10 +15916,11 @@
         <v>2012</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C233" s="4">
-        <v>123.7</v>
+        <f t="shared" si="3"/>
+        <v>2226.3999999999996</v>
       </c>
       <c r="D233" s="4">
         <v>148.5</v>
@@ -15749,10 +15982,11 @@
         <v>2012</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C234" s="4">
-        <v>40.6</v>
+        <f t="shared" si="3"/>
+        <v>730.3</v>
       </c>
       <c r="D234" s="4">
         <v>42.6</v>
@@ -15814,10 +16048,11 @@
         <v>2012</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C235" s="4">
-        <v>76.7</v>
+        <f t="shared" si="3"/>
+        <v>1380.0000000000002</v>
       </c>
       <c r="D235" s="4">
         <v>116.4</v>
@@ -15879,10 +16114,11 @@
         <v>2012</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C236" s="4">
-        <v>288.89999999999998</v>
+        <f t="shared" si="3"/>
+        <v>5199.4000000000005</v>
       </c>
       <c r="D236" s="4">
         <v>285.89999999999998</v>
@@ -15944,10 +16180,11 @@
         <v>2012</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C237" s="4">
-        <v>317.89999999999998</v>
+        <f t="shared" si="3"/>
+        <v>5723</v>
       </c>
       <c r="D237" s="4">
         <v>352.7</v>
@@ -16009,10 +16246,11 @@
         <v>2012</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C238" s="4">
-        <v>188.2</v>
+        <f t="shared" si="3"/>
+        <v>3387.3999999999996</v>
       </c>
       <c r="D238" s="4">
         <v>146</v>
@@ -16074,10 +16312,11 @@
         <v>2012</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C239" s="4">
-        <v>45.5</v>
+        <f t="shared" si="3"/>
+        <v>818.1</v>
       </c>
       <c r="D239" s="4">
         <v>76.3</v>
@@ -16139,10 +16378,11 @@
         <v>2012</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C240" s="4">
-        <v>47.4</v>
+        <f t="shared" si="3"/>
+        <v>853.5</v>
       </c>
       <c r="D240" s="4">
         <v>59.3</v>
@@ -16204,10 +16444,11 @@
         <v>2012</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C241" s="4">
-        <v>44.2</v>
+        <f t="shared" si="3"/>
+        <v>795.50000000000011</v>
       </c>
       <c r="D241" s="4">
         <v>49.4</v>
@@ -16269,10 +16510,11 @@
         <v>2013</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C242" s="4">
-        <v>39.799999999999997</v>
+        <f t="shared" si="3"/>
+        <v>716.39999999999986</v>
       </c>
       <c r="D242" s="4">
         <v>33.299999999999997</v>
@@ -16334,10 +16576,11 @@
         <v>2013</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C243" s="4">
-        <v>36.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>652.80000000000007</v>
       </c>
       <c r="D243" s="4">
         <v>60.6</v>
@@ -16399,10 +16642,11 @@
         <v>2013</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C244" s="4">
-        <v>52.4</v>
+        <f t="shared" si="3"/>
+        <v>942.50000000000011</v>
       </c>
       <c r="D244" s="4">
         <v>35.5</v>
@@ -16464,10 +16708,11 @@
         <v>2013</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C245" s="4">
-        <v>61.8</v>
+        <f t="shared" si="3"/>
+        <v>1112.2</v>
       </c>
       <c r="D245" s="4">
         <v>69.099999999999994</v>
@@ -16529,10 +16774,11 @@
         <v>2013</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C246" s="4">
-        <v>86.6</v>
+        <f t="shared" si="3"/>
+        <v>1558.0999999999997</v>
       </c>
       <c r="D246" s="4">
         <v>109.8</v>
@@ -16594,10 +16840,11 @@
         <v>2013</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C247" s="4">
-        <v>80.5</v>
+        <f t="shared" si="3"/>
+        <v>1448.3</v>
       </c>
       <c r="D247" s="4">
         <v>71.099999999999994</v>
@@ -16659,10 +16906,11 @@
         <v>2013</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C248" s="4">
-        <v>513.5</v>
+        <f t="shared" si="3"/>
+        <v>9243.1</v>
       </c>
       <c r="D248" s="4">
         <v>871.3</v>
@@ -16724,10 +16972,11 @@
         <v>2013</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C249" s="4">
-        <v>131.6</v>
+        <f t="shared" si="3"/>
+        <v>2368.8000000000002</v>
       </c>
       <c r="D249" s="4">
         <v>214.1</v>
@@ -16789,10 +17038,11 @@
         <v>2013</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C250" s="4">
-        <v>151.6</v>
+        <f t="shared" si="3"/>
+        <v>2729.1000000000004</v>
       </c>
       <c r="D250" s="4">
         <v>172.1</v>
@@ -16854,10 +17104,11 @@
         <v>2013</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C251" s="4">
-        <v>49.7</v>
+        <f t="shared" si="3"/>
+        <v>894.7</v>
       </c>
       <c r="D251" s="4">
         <v>7.9</v>
@@ -16919,10 +17170,11 @@
         <v>2013</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C252" s="4">
-        <v>41.6</v>
+        <f t="shared" si="3"/>
+        <v>747.89999999999986</v>
       </c>
       <c r="D252" s="4">
         <v>62.3</v>
@@ -16984,10 +17236,11 @@
         <v>2013</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C253" s="4">
-        <v>31.1</v>
+        <f t="shared" si="3"/>
+        <v>560.20000000000005</v>
       </c>
       <c r="D253" s="4">
         <v>31.8</v>
@@ -17049,10 +17302,11 @@
         <v>2014</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C254" s="4">
-        <v>18.2</v>
+        <f t="shared" si="3"/>
+        <v>327.40000000000003</v>
       </c>
       <c r="D254" s="4">
         <v>10.4</v>
@@ -17114,10 +17368,11 @@
         <v>2014</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C255" s="4">
-        <v>64.2</v>
+        <f t="shared" si="3"/>
+        <v>1154.9000000000001</v>
       </c>
       <c r="D255" s="4">
         <v>19.100000000000001</v>
@@ -17179,10 +17434,11 @@
         <v>2014</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C256" s="4">
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>431.80000000000007</v>
       </c>
       <c r="D256" s="4">
         <v>6.8</v>
@@ -17244,10 +17500,11 @@
         <v>2014</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C257" s="4">
-        <v>67.7</v>
+        <f t="shared" si="3"/>
+        <v>1219.3</v>
       </c>
       <c r="D257" s="4">
         <v>25.5</v>
@@ -17309,10 +17566,11 @@
         <v>2014</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C258" s="4">
-        <v>32.1</v>
+        <f t="shared" si="3"/>
+        <v>578.20000000000005</v>
       </c>
       <c r="D258" s="4">
         <v>66.599999999999994</v>
@@ -17374,10 +17632,11 @@
         <v>2014</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C259" s="4">
-        <v>53.6</v>
+        <f t="shared" ref="C259:C322" si="4">SUM(D259:U259)</f>
+        <v>964.5</v>
       </c>
       <c r="D259" s="4">
         <v>64</v>
@@ -17439,10 +17698,11 @@
         <v>2014</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C260" s="4">
-        <v>105.6</v>
+        <f t="shared" si="4"/>
+        <v>1900.2000000000003</v>
       </c>
       <c r="D260" s="4">
         <v>117.3</v>
@@ -17504,10 +17764,11 @@
         <v>2014</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C261" s="4">
-        <v>209.1</v>
+        <f t="shared" si="4"/>
+        <v>3763.3999999999992</v>
       </c>
       <c r="D261" s="4">
         <v>169.9</v>
@@ -17569,10 +17830,11 @@
         <v>2014</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C262" s="4">
-        <v>109.7</v>
+        <f t="shared" si="4"/>
+        <v>1973.9</v>
       </c>
       <c r="D262" s="4">
         <v>88.7</v>
@@ -17634,10 +17896,11 @@
         <v>2014</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C263" s="4">
-        <v>77.900000000000006</v>
+        <f t="shared" si="4"/>
+        <v>1402.6999999999998</v>
       </c>
       <c r="D263" s="4">
         <v>60.4</v>
@@ -17699,10 +17962,11 @@
         <v>2014</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C264" s="4">
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>630.20000000000005</v>
       </c>
       <c r="D264" s="4">
         <v>28.6</v>
@@ -17764,10 +18028,11 @@
         <v>2014</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C265" s="4">
-        <v>7.4</v>
+        <f t="shared" si="4"/>
+        <v>133.89999999999998</v>
       </c>
       <c r="D265" s="4">
         <v>17.100000000000001</v>
@@ -17829,10 +18094,11 @@
         <v>2015</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C266" s="4">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>269.8</v>
       </c>
       <c r="D266" s="4">
         <v>18.2</v>
@@ -17894,10 +18160,11 @@
         <v>2015</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C267" s="4">
-        <v>19.7</v>
+        <f t="shared" si="4"/>
+        <v>355.40000000000003</v>
       </c>
       <c r="D267" s="4">
         <v>27.3</v>
@@ -17959,10 +18226,11 @@
         <v>2015</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C268" s="4">
-        <v>16.100000000000001</v>
+        <f t="shared" si="4"/>
+        <v>290.5</v>
       </c>
       <c r="D268" s="4">
         <v>13.5</v>
@@ -18024,10 +18292,11 @@
         <v>2015</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C269" s="4">
-        <v>80.900000000000006</v>
+        <f t="shared" si="4"/>
+        <v>1456.2</v>
       </c>
       <c r="D269" s="4">
         <v>106.7</v>
@@ -18089,10 +18358,11 @@
         <v>2015</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C270" s="4">
-        <v>21.4</v>
+        <f t="shared" si="4"/>
+        <v>385.7</v>
       </c>
       <c r="D270" s="4">
         <v>34.700000000000003</v>
@@ -18154,10 +18424,11 @@
         <v>2015</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C271" s="4">
-        <v>107.6</v>
+        <f t="shared" si="4"/>
+        <v>1936.8000000000002</v>
       </c>
       <c r="D271" s="4">
         <v>46.8</v>
@@ -18219,10 +18490,11 @@
         <v>2015</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C272" s="4">
-        <v>201.7</v>
+        <f t="shared" si="4"/>
+        <v>3629.6999999999994</v>
       </c>
       <c r="D272" s="4">
         <v>233.6</v>
@@ -18284,10 +18556,11 @@
         <v>2015</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C273" s="4">
-        <v>144.9</v>
+        <f t="shared" si="4"/>
+        <v>2608.5</v>
       </c>
       <c r="D273" s="4">
         <v>46.8</v>
@@ -18349,10 +18622,11 @@
         <v>2015</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C274" s="4">
-        <v>42.2</v>
+        <f t="shared" si="4"/>
+        <v>760.40000000000009</v>
       </c>
       <c r="D274" s="4">
         <v>4.8</v>
@@ -18414,10 +18688,11 @@
         <v>2015</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C275" s="4">
-        <v>44.4</v>
+        <f t="shared" si="4"/>
+        <v>798.9</v>
       </c>
       <c r="D275" s="4">
         <v>61</v>
@@ -18479,10 +18754,11 @@
         <v>2015</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C276" s="4">
-        <v>215.5</v>
+        <f t="shared" si="4"/>
+        <v>3879.2</v>
       </c>
       <c r="D276" s="4">
         <v>142.1</v>
@@ -18544,10 +18820,11 @@
         <v>2015</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C277" s="4">
-        <v>16.7</v>
+        <f t="shared" si="4"/>
+        <v>301.39999999999998</v>
       </c>
       <c r="D277" s="4">
         <v>22.3</v>
@@ -18609,10 +18886,11 @@
         <v>2016</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C278" s="4">
-        <v>6.4</v>
+        <f t="shared" si="4"/>
+        <v>115.99999999999997</v>
       </c>
       <c r="D278" s="4">
         <v>4</v>
@@ -18674,10 +18952,11 @@
         <v>2016</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C279" s="4">
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>828.8</v>
       </c>
       <c r="D279" s="4">
         <v>54.8</v>
@@ -18739,10 +19018,11 @@
         <v>2016</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C280" s="4">
-        <v>45.5</v>
+        <f t="shared" si="4"/>
+        <v>818.49999999999989</v>
       </c>
       <c r="D280" s="4">
         <v>49.6</v>
@@ -18804,10 +19084,11 @@
         <v>2016</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C281" s="4">
-        <v>82.9</v>
+        <f t="shared" si="4"/>
+        <v>1492</v>
       </c>
       <c r="D281" s="4">
         <v>98</v>
@@ -18869,10 +19150,11 @@
         <v>2016</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C282" s="4">
-        <v>71.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>1289.5999999999999</v>
       </c>
       <c r="D282" s="4">
         <v>109.1</v>
@@ -18934,10 +19216,11 @@
         <v>2016</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C283" s="4">
-        <v>49.2</v>
+        <f t="shared" si="4"/>
+        <v>886.40000000000009</v>
       </c>
       <c r="D283" s="4">
         <v>93.2</v>
@@ -18999,10 +19282,11 @@
         <v>2016</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C284" s="4">
-        <v>434</v>
+        <f t="shared" si="4"/>
+        <v>7811.1</v>
       </c>
       <c r="D284" s="4">
         <v>617.1</v>
@@ -19064,10 +19348,11 @@
         <v>2016</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C285" s="4">
-        <v>123.9</v>
+        <f t="shared" si="4"/>
+        <v>2230.0000000000005</v>
       </c>
       <c r="D285" s="4">
         <v>33.200000000000003</v>
@@ -19129,10 +19414,11 @@
         <v>2016</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C286" s="4">
-        <v>82.7</v>
+        <f t="shared" si="4"/>
+        <v>1487.7000000000003</v>
       </c>
       <c r="D286" s="4">
         <v>76.2</v>
@@ -19194,10 +19480,11 @@
         <v>2016</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C287" s="4">
-        <v>102.1</v>
+        <f t="shared" si="4"/>
+        <v>1838.1999999999996</v>
       </c>
       <c r="D287" s="4">
         <v>108.2</v>
@@ -19259,10 +19546,11 @@
         <v>2016</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C288" s="4">
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>413.70000000000016</v>
       </c>
       <c r="D288" s="4">
         <v>14.9</v>
@@ -19324,10 +19612,11 @@
         <v>2016</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C289" s="4">
-        <v>71.099999999999994</v>
+        <f t="shared" si="4"/>
+        <v>1278.8999999999999</v>
       </c>
       <c r="D289" s="4">
         <v>79.099999999999994</v>
@@ -19389,10 +19678,11 @@
         <v>2017</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C290" s="4">
-        <v>28.8</v>
+        <f t="shared" si="4"/>
+        <v>518.5</v>
       </c>
       <c r="D290" s="4">
         <v>15.1</v>
@@ -19454,10 +19744,11 @@
         <v>2017</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C291" s="4">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>198.5</v>
       </c>
       <c r="D291" s="4">
         <v>13</v>
@@ -19519,10 +19810,11 @@
         <v>2017</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C292" s="4">
-        <v>28.3</v>
+        <f t="shared" si="4"/>
+        <v>509.1</v>
       </c>
       <c r="D292" s="4">
         <v>15.9</v>
@@ -19584,10 +19876,11 @@
         <v>2017</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C293" s="4">
-        <v>55.1</v>
+        <f t="shared" si="4"/>
+        <v>992.3</v>
       </c>
       <c r="D293" s="4">
         <v>56.5</v>
@@ -19649,10 +19942,11 @@
         <v>2017</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C294" s="4">
-        <v>26.1</v>
+        <f t="shared" si="4"/>
+        <v>470.6</v>
       </c>
       <c r="D294" s="4">
         <v>22</v>
@@ -19714,10 +20008,11 @@
         <v>2017</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C295" s="4">
-        <v>90.5</v>
+        <f t="shared" si="4"/>
+        <v>1628.5000000000002</v>
       </c>
       <c r="D295" s="4">
         <v>88.9</v>
@@ -19779,10 +20074,11 @@
         <v>2017</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C296" s="4">
-        <v>400.5</v>
+        <f t="shared" si="4"/>
+        <v>7208.7</v>
       </c>
       <c r="D296" s="4">
         <v>530.4</v>
@@ -19844,10 +20140,11 @@
         <v>2017</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C297" s="4">
-        <v>341</v>
+        <f t="shared" si="4"/>
+        <v>6138.2999999999993</v>
       </c>
       <c r="D297" s="4">
         <v>343.1</v>
@@ -19909,10 +20206,11 @@
         <v>2017</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C298" s="4">
-        <v>40.9</v>
+        <f t="shared" si="4"/>
+        <v>735.3</v>
       </c>
       <c r="D298" s="4">
         <v>32.200000000000003</v>
@@ -19974,10 +20272,11 @@
         <v>2017</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C299" s="4">
-        <v>60.2</v>
+        <f t="shared" si="4"/>
+        <v>1082.8999999999999</v>
       </c>
       <c r="D299" s="4">
         <v>50</v>
@@ -20039,10 +20338,11 @@
         <v>2017</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C300" s="4">
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>557.9</v>
       </c>
       <c r="D300" s="4">
         <v>23.1</v>
@@ -20104,10 +20404,11 @@
         <v>2017</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C301" s="4">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>234.00000000000003</v>
       </c>
       <c r="D301" s="4">
         <v>27</v>
@@ -20169,10 +20470,11 @@
         <v>2018</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C302" s="4">
-        <v>5.3</v>
+        <f t="shared" si="4"/>
+        <v>96.200000000000017</v>
       </c>
       <c r="D302" s="4">
         <v>5.9</v>
@@ -20234,10 +20536,11 @@
         <v>2018</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C303" s="4">
-        <v>35.4</v>
+        <f t="shared" si="4"/>
+        <v>636.59999999999991</v>
       </c>
       <c r="D303" s="4">
         <v>36.5</v>
@@ -20299,10 +20602,11 @@
         <v>2018</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C304" s="4">
-        <v>58.7</v>
+        <f t="shared" si="4"/>
+        <v>1056.1999999999998</v>
       </c>
       <c r="D304" s="4">
         <v>32.799999999999997</v>
@@ -20364,10 +20668,11 @@
         <v>2018</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C305" s="4">
-        <v>133.4</v>
+        <f t="shared" si="4"/>
+        <v>2400.4999999999995</v>
       </c>
       <c r="D305" s="4">
         <v>139.5</v>
@@ -20429,10 +20734,11 @@
         <v>2018</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C306" s="4">
-        <v>170.6</v>
+        <f t="shared" si="4"/>
+        <v>3069.8999999999996</v>
       </c>
       <c r="D306" s="4">
         <v>201.9</v>
@@ -20494,10 +20800,11 @@
         <v>2018</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C307" s="4">
-        <v>78.400000000000006</v>
+        <f t="shared" si="4"/>
+        <v>1410.7</v>
       </c>
       <c r="D307" s="4">
         <v>104.1</v>
@@ -20559,10 +20866,11 @@
         <v>2018</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C308" s="4">
-        <v>223.2</v>
+        <f t="shared" si="4"/>
+        <v>4018.2999999999997</v>
       </c>
       <c r="D308" s="4">
         <v>213.6</v>
@@ -20624,10 +20932,11 @@
         <v>2018</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C309" s="4">
-        <v>399.9</v>
+        <f t="shared" si="4"/>
+        <v>7198</v>
       </c>
       <c r="D309" s="4">
         <v>389.5</v>
@@ -20689,10 +20998,11 @@
         <v>2018</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C310" s="4">
-        <v>124.9</v>
+        <f t="shared" si="4"/>
+        <v>2248.6999999999998</v>
       </c>
       <c r="D310" s="4">
         <v>69.900000000000006</v>
@@ -20754,10 +21064,11 @@
         <v>2018</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C311" s="4">
-        <v>173</v>
+        <f t="shared" si="4"/>
+        <v>3113.9</v>
       </c>
       <c r="D311" s="4">
         <v>127.5</v>
@@ -20819,10 +21130,11 @@
         <v>2018</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C312" s="4">
-        <v>80.8</v>
+        <f t="shared" si="4"/>
+        <v>1453.9</v>
       </c>
       <c r="D312" s="4">
         <v>63.5</v>
@@ -20884,10 +21196,11 @@
         <v>2018</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C313" s="4">
-        <v>18.600000000000001</v>
+        <f t="shared" si="4"/>
+        <v>335.59999999999997</v>
       </c>
       <c r="D313" s="4">
         <v>16.8</v>
@@ -20949,10 +21262,11 @@
         <v>2019</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C314" s="4">
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>61.200000000000017</v>
       </c>
       <c r="D314" s="4">
         <v>1.3</v>
@@ -21014,10 +21328,11 @@
         <v>2019</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C315" s="4">
-        <v>21.3</v>
+        <f t="shared" si="4"/>
+        <v>383.10000000000008</v>
       </c>
       <c r="D315" s="4">
         <v>29</v>
@@ -21079,10 +21394,11 @@
         <v>2019</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C316" s="4">
-        <v>40.700000000000003</v>
+        <f t="shared" si="4"/>
+        <v>733.3</v>
       </c>
       <c r="D316" s="4">
         <v>38.700000000000003</v>
@@ -21144,10 +21460,11 @@
         <v>2019</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C317" s="4">
-        <v>56.9</v>
+        <f t="shared" si="4"/>
+        <v>1024.3000000000002</v>
       </c>
       <c r="D317" s="4">
         <v>49.4</v>
@@ -21209,10 +21526,11 @@
         <v>2019</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C318" s="4">
-        <v>17.3</v>
+        <f t="shared" si="4"/>
+        <v>311.10000000000002</v>
       </c>
       <c r="D318" s="4">
         <v>27.1</v>
@@ -21274,10 +21592,11 @@
         <v>2019</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C319" s="4">
-        <v>103.7</v>
+        <f t="shared" si="4"/>
+        <v>1866.6999999999996</v>
       </c>
       <c r="D319" s="4">
         <v>76.400000000000006</v>
@@ -21339,10 +21658,11 @@
         <v>2019</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C320" s="4">
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>3599.2000000000003</v>
       </c>
       <c r="D320" s="4">
         <v>238.6</v>
@@ -21404,10 +21724,11 @@
         <v>2019</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C321" s="4">
-        <v>172.1</v>
+        <f t="shared" si="4"/>
+        <v>3097.6</v>
       </c>
       <c r="D321" s="4">
         <v>192.3</v>
@@ -21469,10 +21790,11 @@
         <v>2019</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C322" s="4">
-        <v>207</v>
+        <f t="shared" si="4"/>
+        <v>3725.2</v>
       </c>
       <c r="D322" s="4">
         <v>142.6</v>
@@ -21534,10 +21856,11 @@
         <v>2019</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C323" s="4">
-        <v>148.5</v>
+        <f t="shared" ref="C323:C373" si="5">SUM(D323:U323)</f>
+        <v>2673.4000000000005</v>
       </c>
       <c r="D323" s="4">
         <v>50.3</v>
@@ -21599,10 +21922,11 @@
         <v>2019</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C324" s="4">
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>1223.1999999999998</v>
       </c>
       <c r="D324" s="4">
         <v>63.1</v>
@@ -21664,10 +21988,11 @@
         <v>2019</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C325" s="4">
-        <v>9.6</v>
+        <f t="shared" si="5"/>
+        <v>172.6</v>
       </c>
       <c r="D325" s="4">
         <v>14.4</v>
@@ -21729,10 +22054,11 @@
         <v>2020</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C326" s="4">
-        <v>91.5</v>
+        <f t="shared" si="5"/>
+        <v>1647.1</v>
       </c>
       <c r="D326" s="4">
         <v>80</v>
@@ -21794,10 +22120,11 @@
         <v>2020</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C327" s="4">
-        <v>53.7</v>
+        <f t="shared" si="5"/>
+        <v>966.99999999999989</v>
       </c>
       <c r="D327" s="4">
         <v>54.2</v>
@@ -21859,10 +22186,11 @@
         <v>2020</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C328" s="4">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>504.3</v>
       </c>
       <c r="D328" s="4">
         <v>13.8</v>
@@ -21924,10 +22252,11 @@
         <v>2020</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C329" s="4">
-        <v>33.299999999999997</v>
+        <f t="shared" si="5"/>
+        <v>599.39999999999986</v>
       </c>
       <c r="D329" s="4">
         <v>14.4</v>
@@ -21989,10 +22318,11 @@
         <v>2020</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C330" s="4">
-        <v>127</v>
+        <f t="shared" si="5"/>
+        <v>2286</v>
       </c>
       <c r="D330" s="4">
         <v>118.3</v>
@@ -22054,10 +22384,11 @@
         <v>2020</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C331" s="4">
-        <v>121.2</v>
+        <f t="shared" si="5"/>
+        <v>2182</v>
       </c>
       <c r="D331" s="4">
         <v>75.8</v>
@@ -22119,10 +22450,11 @@
         <v>2020</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C332" s="4">
-        <v>269.10000000000002</v>
+        <f t="shared" si="5"/>
+        <v>4844.6000000000004</v>
       </c>
       <c r="D332" s="4">
         <v>174.3</v>
@@ -22184,10 +22516,11 @@
         <v>2020</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C333" s="4">
-        <v>516.9</v>
+        <f t="shared" si="5"/>
+        <v>9304.0999999999985</v>
       </c>
       <c r="D333" s="4">
         <v>773.7</v>
@@ -22249,10 +22582,11 @@
         <v>2020</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C334" s="4">
-        <v>302.60000000000002</v>
+        <f t="shared" si="5"/>
+        <v>5447.2000000000007</v>
       </c>
       <c r="D334" s="4">
         <v>157.19999999999999</v>
@@ -22314,10 +22648,11 @@
         <v>2020</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C335" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>126.8</v>
       </c>
       <c r="D335" s="4">
         <v>0.1</v>
@@ -22379,10 +22714,11 @@
         <v>2020</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C336" s="4">
-        <v>36.4</v>
+        <f t="shared" si="5"/>
+        <v>655</v>
       </c>
       <c r="D336" s="4">
         <v>84.2</v>
@@ -22444,10 +22780,11 @@
         <v>2020</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C337" s="4">
-        <v>3.4</v>
+        <f t="shared" si="5"/>
+        <v>61.400000000000006</v>
       </c>
       <c r="D337" s="4">
         <v>4.9000000000000004</v>
@@ -22509,10 +22846,11 @@
         <v>2021</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C338" s="4">
-        <v>7.7</v>
+        <f t="shared" si="5"/>
+        <v>139.30000000000001</v>
       </c>
       <c r="D338" s="4">
         <v>17.7</v>
@@ -22530,7 +22868,7 @@
         <v>5.6</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J338" s="4">
         <v>4.5</v>
@@ -22563,10 +22901,10 @@
         <v>11</v>
       </c>
       <c r="T338" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U338" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -22574,10 +22912,11 @@
         <v>2021</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C339" s="4">
-        <v>4.7</v>
+        <f t="shared" si="5"/>
+        <v>84.3</v>
       </c>
       <c r="D339" s="4">
         <v>6.6</v>
@@ -22639,10 +22978,11 @@
         <v>2021</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C340" s="4">
-        <v>100.4</v>
+        <f t="shared" si="5"/>
+        <v>1806.8000000000002</v>
       </c>
       <c r="D340" s="4">
         <v>104.1</v>
@@ -22704,10 +23044,11 @@
         <v>2021</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C341" s="4">
-        <v>99.4</v>
+        <f t="shared" si="5"/>
+        <v>1789.7</v>
       </c>
       <c r="D341" s="4">
         <v>121.7</v>
@@ -22769,10 +23110,11 @@
         <v>2021</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C342" s="4">
-        <v>158.4</v>
+        <f t="shared" si="5"/>
+        <v>2851.7000000000003</v>
       </c>
       <c r="D342" s="4">
         <v>172.3</v>
@@ -22834,10 +23176,11 @@
         <v>2021</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C343" s="4">
-        <v>74.7</v>
+        <f t="shared" si="5"/>
+        <v>1343.8999999999996</v>
       </c>
       <c r="D343" s="4">
         <v>99.7</v>
@@ -22899,10 +23242,11 @@
         <v>2021</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C344" s="4">
-        <v>138.19999999999999</v>
+        <f t="shared" si="5"/>
+        <v>2488.4</v>
       </c>
       <c r="D344" s="4">
         <v>169.5</v>
@@ -22964,10 +23308,11 @@
         <v>2021</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C345" s="4">
-        <v>231</v>
+        <f t="shared" si="5"/>
+        <v>4157.7999999999993</v>
       </c>
       <c r="D345" s="4">
         <v>129.6</v>
@@ -23029,10 +23374,11 @@
         <v>2021</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C346" s="4">
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>2591.4</v>
       </c>
       <c r="D346" s="4">
         <v>106</v>
@@ -23094,10 +23440,11 @@
         <v>2021</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C347" s="4">
-        <v>109.7</v>
+        <f t="shared" si="5"/>
+        <v>1974.9000000000003</v>
       </c>
       <c r="D347" s="4">
         <v>60.6</v>
@@ -23159,10 +23506,11 @@
         <v>2021</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C348" s="4">
-        <v>36.6</v>
+        <f t="shared" si="5"/>
+        <v>659.40000000000009</v>
       </c>
       <c r="D348" s="4">
         <v>53</v>
@@ -23224,10 +23572,11 @@
         <v>2021</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C349" s="4">
-        <v>19.7</v>
+        <f t="shared" si="5"/>
+        <v>355</v>
       </c>
       <c r="D349" s="4">
         <v>5.0999999999999996</v>
@@ -23289,10 +23638,11 @@
         <v>2022</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C350" s="4">
-        <v>3.6</v>
+        <f t="shared" si="5"/>
+        <v>64.5</v>
       </c>
       <c r="D350" s="4">
         <v>2.8</v>
@@ -23354,10 +23704,11 @@
         <v>2022</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C351" s="4">
-        <v>6.2</v>
+        <f t="shared" si="5"/>
+        <v>111.69999999999999</v>
       </c>
       <c r="D351" s="4">
         <v>6.6</v>
@@ -23378,7 +23729,7 @@
         <v>11.1</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K351" s="4">
         <v>5.9</v>
@@ -23419,10 +23770,11 @@
         <v>2022</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C352" s="4">
-        <v>90.5</v>
+        <f t="shared" si="5"/>
+        <v>1629.7000000000003</v>
       </c>
       <c r="D352" s="4">
         <v>103</v>
@@ -23484,10 +23836,11 @@
         <v>2022</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C353" s="4">
-        <v>37.299999999999997</v>
+        <f t="shared" si="5"/>
+        <v>672.09999999999991</v>
       </c>
       <c r="D353" s="4">
         <v>28.5</v>
@@ -23549,10 +23902,11 @@
         <v>2022</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C354" s="4">
-        <v>9.8000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>176.5</v>
       </c>
       <c r="D354" s="4">
         <v>10.9</v>
@@ -23614,10 +23968,11 @@
         <v>2022</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C355" s="4">
-        <v>271.2</v>
+        <f t="shared" si="5"/>
+        <v>4881.4999999999991</v>
       </c>
       <c r="D355" s="4">
         <v>402.5</v>
@@ -23679,10 +24034,11 @@
         <v>2022</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C356" s="4">
-        <v>206.6</v>
+        <f t="shared" si="5"/>
+        <v>3719.4999999999995</v>
       </c>
       <c r="D356" s="4">
         <v>208.2</v>
@@ -23744,10 +24100,11 @@
         <v>2022</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C357" s="4">
-        <v>396.9</v>
+        <f t="shared" si="5"/>
+        <v>7143.9</v>
       </c>
       <c r="D357" s="4">
         <v>491.7</v>
@@ -23809,10 +24166,11 @@
         <v>2022</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C358" s="4">
-        <v>199.9</v>
+        <f t="shared" si="5"/>
+        <v>3598.8000000000006</v>
       </c>
       <c r="D358" s="4">
         <v>256.7</v>
@@ -23874,10 +24232,11 @@
         <v>2022</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C359" s="4">
-        <v>181.7</v>
+        <f t="shared" si="5"/>
+        <v>3270.7999999999997</v>
       </c>
       <c r="D359" s="4">
         <v>137.30000000000001</v>
@@ -23939,10 +24298,11 @@
         <v>2022</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C360" s="4">
-        <v>57.4</v>
+        <f t="shared" si="5"/>
+        <v>1032.3</v>
       </c>
       <c r="D360" s="4">
         <v>69.5</v>
@@ -24004,10 +24364,11 @@
         <v>2022</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C361" s="4">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>89.399999999999991</v>
       </c>
       <c r="D361" s="4">
         <v>10.7</v>
@@ -24016,7 +24377,7 @@
         <v>6.1</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G361" s="4">
         <v>0.4</v>
@@ -24028,7 +24389,7 @@
         <v>0.7</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K361" s="4">
         <v>7.6</v>
@@ -24069,10 +24430,11 @@
         <v>2023</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C362" s="4">
-        <v>48.5</v>
+        <f t="shared" si="5"/>
+        <v>873.1</v>
       </c>
       <c r="D362" s="4">
         <v>52.3</v>
@@ -24134,16 +24496,17 @@
         <v>2023</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C363" s="4">
-        <v>13.4</v>
+        <f t="shared" si="5"/>
+        <v>241.70000000000002</v>
       </c>
       <c r="D363" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F363" s="4">
         <v>38.5</v>
@@ -24152,7 +24515,7 @@
         <v>70.7</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I363" s="4">
         <v>43.4</v>
@@ -24164,7 +24527,7 @@
         <v>1</v>
       </c>
       <c r="L363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M363" s="4">
         <v>3</v>
@@ -24176,13 +24539,13 @@
         <v>3.7</v>
       </c>
       <c r="P363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q363" s="4">
         <v>0.5</v>
       </c>
       <c r="R363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S363" s="4">
         <v>0.9</v>
@@ -24199,10 +24562,11 @@
         <v>2023</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C364" s="4">
-        <v>12.7</v>
+        <f t="shared" si="5"/>
+        <v>228.3</v>
       </c>
       <c r="D364" s="4">
         <v>9.3000000000000007</v>
@@ -24264,10 +24628,11 @@
         <v>2023</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C365" s="4">
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>1026.0999999999999</v>
       </c>
       <c r="D365" s="4">
         <v>90.6</v>
@@ -24329,10 +24694,11 @@
         <v>2023</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C366" s="4">
-        <v>109.1</v>
+        <f t="shared" si="5"/>
+        <v>1963.2</v>
       </c>
       <c r="D366" s="4">
         <v>115.6</v>
@@ -24394,10 +24760,11 @@
         <v>2023</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C367" s="4">
-        <v>182.3</v>
+        <f t="shared" si="5"/>
+        <v>3280.6</v>
       </c>
       <c r="D367" s="4">
         <v>263.2</v>
@@ -24433,7 +24800,7 @@
         <v>240.5</v>
       </c>
       <c r="O367" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P367" s="4">
         <v>220.4</v>
@@ -24459,10 +24826,11 @@
         <v>2023</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C368" s="4">
-        <v>279.10000000000002</v>
+        <f t="shared" si="5"/>
+        <v>5024.2</v>
       </c>
       <c r="D368" s="4">
         <v>313.5</v>
@@ -24524,10 +24892,11 @@
         <v>2023</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C369" s="4">
-        <v>303.3</v>
+        <f t="shared" si="5"/>
+        <v>5458.5</v>
       </c>
       <c r="D369" s="4">
         <v>215.2</v>
@@ -24563,7 +24932,7 @@
         <v>301</v>
       </c>
       <c r="O369" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P369" s="4">
         <v>241.6</v>
@@ -24589,10 +24958,11 @@
         <v>2023</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C370" s="4">
-        <v>169.6</v>
+        <f t="shared" si="5"/>
+        <v>3052.7000000000003</v>
       </c>
       <c r="D370" s="4">
         <v>122.8</v>
@@ -24654,10 +25024,11 @@
         <v>2023</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C371" s="4">
-        <v>23.4</v>
+        <f t="shared" si="5"/>
+        <v>420.79999999999995</v>
       </c>
       <c r="D371" s="4">
         <v>28.2</v>
@@ -24719,10 +25090,11 @@
         <v>2023</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C372" s="4">
-        <v>64.900000000000006</v>
+        <f t="shared" si="5"/>
+        <v>1167.3999999999999</v>
       </c>
       <c r="D372" s="4">
         <v>86.2</v>
@@ -24743,7 +25115,7 @@
         <v>60.1</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K372" s="4">
         <v>89.9</v>
@@ -24784,10 +25156,11 @@
         <v>2023</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C373" s="4">
-        <v>113.2</v>
+        <f t="shared" si="5"/>
+        <v>2037.7</v>
       </c>
       <c r="D373" s="4">
         <v>91.8</v>
@@ -24799,7 +25172,7 @@
         <v>229.2</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H373" s="4">
         <v>121.7</v>
@@ -24861,103 +25234,103 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
